--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>VDATE</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Назначение - английское</t>
+  </si>
+  <si>
+    <t>Дата валютиро вания</t>
+  </si>
+  <si>
+    <t>POSTDATE</t>
+  </si>
+  <si>
+    <t>&lt;= даты проводки</t>
   </si>
 </sst>
 </file>
@@ -1182,11 +1191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1205,9 +1214,10 @@
     <col min="14" max="14" width="25.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36">
+    <row r="1" spans="1:17" ht="36">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -1256,8 +1266,11 @@
       <c r="P1" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="Q1" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="F2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="20"/>
@@ -1270,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1293,10 +1306,11 @@
     <col min="14" max="14" width="25.5703125" style="7" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="6" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="17" max="17" width="11.42578125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36">
+    <row r="1" spans="1:17" ht="36">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -1345,10 +1359,13 @@
       <c r="P1" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="Q1" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>10</v>
@@ -1395,8 +1412,11 @@
       <c r="P2" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="Q2" s="13" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5">
+    <row r="4" spans="1:17" ht="22.5">
       <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1465,11 @@
       <c r="P4" s="16" t="s">
         <v>28</v>
       </c>
+      <c r="Q4" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="48" customHeight="1">
+    <row r="5" spans="1:17" ht="48" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1483,6 +1506,9 @@
       </c>
       <c r="P5" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Projects\BarsGL_Online\barsgl\barsgl-ejbparent\barsgl-ejbtest\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10545"/>
   </bookViews>
@@ -231,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1195,10 +1200,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="15.28515625" style="2" customWidth="1"/>
@@ -1217,7 +1222,7 @@
     <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="20"/>
@@ -1290,7 +1295,7 @@
       <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="5" customWidth="1"/>
     <col min="2" max="4" width="15.28515625" style="6" customWidth="1"/>
@@ -1310,7 +1315,7 @@
     <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -1416,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5">
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="48" customHeight="1">
+    <row r="5" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
